--- a/translations/census_individual_translate_cy.xlsx
+++ b/translations/census_individual_translate_cy.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -463,9 +466,6 @@
     <t>Unrhyw grefydd arall (nodwch)</t>
   </si>
   <si>
-    <t>questionnaire-completed-section</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Thank you for taking part in the 2017 Census Test.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2597,15 +2597,18 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;Gall yr enghreifftiau gynnwys cyfeiriad rhiant arall, cyfeiriad un o ganolfannau’r lluoedd arfog, tŷ gwyliau, neu gyfeiriad yn ystod y tymor.&lt;/p&gt;&lt;p&gt;Nid oes rhaid i'r diwrnodau rydych yn aros yn y cyfeiriad fod un ar ôl y llall.  Gallant fod ar unrhyw adeg o'r flwyddyn.&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>confirmation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -2615,7 +2618,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2630,6 +2633,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2644,48 +2648,331 @@
       <bottom style="thin">
         <color rgb="FFAAAAAA"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C459"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.5"/>
-    <col customWidth="1" min="2" max="2" width="14.13"/>
-    <col customWidth="1" min="3" max="3" width="52.38"/>
-    <col customWidth="1" min="4" max="26" width="7.63"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" customWidth="1"/>
+    <col min="4" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2696,7 +2983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2707,7 +2994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2718,7 +3005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2729,7 +3016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2740,7 +3027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2751,7 +3038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2762,7 +3049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2773,7 +3060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2784,7 +3071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2792,7 +3079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -2803,7 +3090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -2814,7 +3101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -2825,7 +3112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -2836,7 +3123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -2847,7 +3134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -2858,7 +3145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -2869,7 +3156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -2880,7 +3167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -2891,7 +3178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -2902,7 +3189,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -2913,7 +3200,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -2924,7 +3211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -2935,7 +3222,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -2946,7 +3233,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -2957,7 +3244,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -2968,7 +3255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -2979,7 +3266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2990,7 +3277,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -3001,7 +3288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -3012,7 +3299,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -3023,7 +3310,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -3034,7 +3321,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
@@ -3045,7 +3332,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -3056,7 +3343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -3067,7 +3354,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -3078,7 +3365,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
@@ -3089,7 +3376,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -3100,7 +3387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>75</v>
       </c>
@@ -3111,7 +3398,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
@@ -3122,7 +3409,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -3133,7 +3420,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -3144,7 +3431,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
@@ -3155,7 +3442,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
@@ -3166,7 +3453,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>83</v>
       </c>
@@ -3177,7 +3464,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
@@ -3188,7 +3475,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,7 +3486,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>83</v>
       </c>
@@ -3210,7 +3497,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>83</v>
       </c>
@@ -3221,7 +3508,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>100</v>
       </c>
@@ -3232,7 +3519,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -3243,7 +3530,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
@@ -3254,7 +3541,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
@@ -3265,7 +3552,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>109</v>
       </c>
@@ -3276,7 +3563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>110</v>
       </c>
@@ -3287,7 +3574,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>113</v>
       </c>
@@ -3298,7 +3585,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>113</v>
       </c>
@@ -3309,7 +3596,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
@@ -3320,7 +3607,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>121</v>
       </c>
@@ -3331,7 +3618,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>121</v>
       </c>
@@ -3342,7 +3629,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>124</v>
       </c>
@@ -3353,7 +3640,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>126</v>
       </c>
@@ -3364,7 +3651,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>126</v>
       </c>
@@ -3375,7 +3662,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -3386,7 +3673,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>126</v>
       </c>
@@ -3397,7 +3684,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>126</v>
       </c>
@@ -3408,7 +3695,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>126</v>
       </c>
@@ -3419,7 +3706,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>126</v>
       </c>
@@ -3430,7 +3717,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>126</v>
       </c>
@@ -3441,7 +3728,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
@@ -3452,7 +3739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>144</v>
       </c>
@@ -3463,7 +3750,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>144</v>
       </c>
@@ -3474,7 +3761,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>145</v>
       </c>
@@ -3485,7 +3772,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -3496,7 +3783,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>146</v>
       </c>
@@ -3507,7 +3794,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>146</v>
       </c>
@@ -3518,7 +3805,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>146</v>
       </c>
@@ -3529,7 +3816,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>146</v>
       </c>
@@ -3540,7 +3827,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>146</v>
       </c>
@@ -3551,7 +3838,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>146</v>
       </c>
@@ -3562,7 +3849,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>146</v>
       </c>
@@ -3573,479 +3860,479 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C82" s="1" t="s">
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="1" t="s">
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C84" s="1" t="s">
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C85" s="1" t="s">
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="1" t="s">
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C87" s="1" t="s">
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C88" s="1" t="s">
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C89" s="1" t="s">
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C90" s="1" t="s">
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C91" s="1" t="s">
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C92" s="1" t="s">
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C93" s="1" t="s">
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="1" t="s">
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C95" s="1" t="s">
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C96" s="1" t="s">
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C97" s="1" t="s">
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C98" s="1" t="s">
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C99" s="1" t="s">
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C100" s="1" t="s">
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C101" s="1" t="s">
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C102" s="1" t="s">
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C103" s="1" t="s">
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C104" s="1" t="s">
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C105" s="1" t="s">
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C107" s="1" t="s">
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C109" s="1" t="s">
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C110" s="1" t="s">
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C111" s="1" t="s">
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C112" s="1" t="s">
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C113" s="1" t="s">
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C114" s="1" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C115" s="1" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C116" s="1" t="s">
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C121" s="1" t="s">
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C122" s="1" t="s">
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C123" s="1" t="s">
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>32</v>
@@ -4054,97 +4341,97 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C126" s="1" t="s">
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C127" s="1" t="s">
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C128" s="1" t="s">
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C129" s="3" t="s">
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C130" s="1" t="s">
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C131" s="1" t="s">
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C132" s="1" t="s">
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C133" s="1" t="s">
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>32</v>
@@ -4153,9 +4440,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>50</v>
@@ -4164,31 +4451,31 @@
         <v>51</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C136" s="1" t="s">
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="138">
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>17</v>
@@ -4197,31 +4484,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C139" s="1" t="s">
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C140" s="1" t="s">
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>32</v>
@@ -4230,61 +4517,61 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C142" s="1" t="s">
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C143" s="1" t="s">
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C145" s="1" t="s">
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C146" s="1" t="s">
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>10</v>
@@ -4293,9 +4580,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>12</v>
@@ -4304,31 +4591,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C149" s="1" t="s">
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C150" s="1" t="s">
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>32</v>
@@ -4337,83 +4624,83 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C152" s="1" t="s">
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C153" s="1" t="s">
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C154" s="1" t="s">
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C155" s="1" t="s">
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C156" s="1" t="s">
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C157" s="1" t="s">
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>50</v>
@@ -4422,141 +4709,141 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C160" s="1" t="s">
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C161" s="1" t="s">
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C162" s="1" t="s">
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C163" s="1" t="s">
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C164" s="1" t="s">
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C165" s="1" t="s">
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C166" s="1" t="s">
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C167" s="1" t="s">
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C168" s="2" t="s">
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C169" s="2" t="s">
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C170" s="2" t="s">
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C171" s="2" t="s">
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>50</v>
@@ -4565,64 +4852,64 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C173" s="1" t="s">
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C174" s="1" t="s">
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C175" s="1" t="s">
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C176" s="1" t="s">
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="178">
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>107</v>
@@ -4631,83 +4918,83 @@
         <v>108</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="s">
+      <c r="B181" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C181" s="1" t="s">
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="s">
+      <c r="B182" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>50</v>
@@ -4716,64 +5003,64 @@
         <v>51</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C187" s="1" t="s">
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C189" s="1" t="s">
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B190" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C190" s="1" t="s">
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="192">
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>107</v>
@@ -4782,39 +5069,39 @@
         <v>108</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C194" s="1" t="s">
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C195" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C195" s="1" t="s">
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>10</v>
@@ -4823,9 +5110,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>12</v>
@@ -4834,64 +5121,64 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C198" s="1" t="s">
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C199" s="1" t="s">
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C200" s="1" t="s">
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C201" s="1" t="s">
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="s">
+      <c r="B202" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C202" s="1" t="s">
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>32</v>
@@ -4900,278 +5187,278 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C204" s="1" t="s">
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C205" s="2" t="s">
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C206" s="2" t="s">
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C207" s="2" t="s">
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C208" s="1" t="s">
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C209" s="1" t="s">
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C210" s="1" t="s">
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C211" s="1" t="s">
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C212" s="1" t="s">
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B213" s="1" t="s">
+      <c r="C213" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C213" s="1" t="s">
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C214" s="1" t="s">
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C215" s="1" t="s">
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C216" s="1" t="s">
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C218" s="1" t="s">
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C219" s="1" t="s">
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C220" s="1" t="s">
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C221" s="1" t="s">
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C222" s="1" t="s">
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C224" s="1" t="s">
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C226" s="1" t="s">
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B227" s="1" t="s">
+      <c r="C227" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C227" s="1" t="s">
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B228" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C228" s="1" t="s">
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>32</v>
@@ -5180,64 +5467,64 @@
         <v>32</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C230" s="1" t="s">
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C231" s="3" t="s">
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C232" s="1" t="s">
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B233" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C233" s="1" t="s">
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B234" s="1" t="s">
+      <c r="C234" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C234" s="1" t="s">
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>32</v>
@@ -5246,130 +5533,130 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C236" s="1" t="s">
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="s">
+      <c r="B237" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C237" s="1" t="s">
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="s">
+      <c r="B238" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="s">
+      <c r="B239" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C239" s="1" t="s">
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="s">
+      <c r="B240" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="s">
+      <c r="B241" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C241" s="1" t="s">
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="s">
+      <c r="B242" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="C242" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C242" s="1" t="s">
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="s">
+      <c r="B243" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="C243" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C243" s="1" t="s">
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="s">
+      <c r="B244" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="C244" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C244" s="1" t="s">
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="s">
+      <c r="B245" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="C245" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C245" s="1" t="s">
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B246" s="1" t="s">
+      <c r="C246" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="247">
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>107</v>
@@ -5378,61 +5665,61 @@
         <v>108</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="s">
+      <c r="B250" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="s">
+      <c r="B251" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C251" s="1" t="s">
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="253">
+    <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>107</v>
@@ -5441,258 +5728,258 @@
         <v>108</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="C255" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C255" s="1" t="s">
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="s">
+      <c r="B256" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="C256" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C256" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="257">
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C257" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1" t="s">
         <v>470</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="C259" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C259" s="1" t="s">
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="s">
+      <c r="B260" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="C260" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C260" s="1" t="s">
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="s">
+      <c r="B261" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="C261" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C261" s="2" t="s">
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B262" s="1" t="s">
+      <c r="C262" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C262" s="2" t="s">
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B263" s="1" t="s">
+      <c r="C263" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C263" s="2" t="s">
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="s">
+      <c r="B264" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="C264" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C264" s="1" t="s">
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1" t="s">
         <v>487</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C266" s="1" t="s">
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="B267" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C267" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="268">
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="269">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="C270" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C270" s="1" t="s">
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="s">
+      <c r="B271" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C271" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C271" s="2" t="s">
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B272" s="1" t="s">
+      <c r="C272" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C272" s="2" t="s">
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="s">
+      <c r="B273" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="C273" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C273" s="1" t="s">
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1" t="s">
         <v>504</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="C275" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C275" s="1" t="s">
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="s">
+      <c r="B276" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="277">
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C277" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
         <v>511</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>32</v>
@@ -5701,226 +5988,226 @@
         <v>32</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="C279" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C279" s="1" t="s">
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="s">
+      <c r="B280" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="C280" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C280" s="2" t="s">
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B281" s="1" t="s">
+      <c r="C281" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C281" s="2" t="s">
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B282" s="1" t="s">
+      <c r="C282" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C282" s="2" t="s">
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B283" s="1" t="s">
+      <c r="C283" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C283" s="2" t="s">
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B284" s="1" t="s">
+      <c r="C284" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C284" s="2" t="s">
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B285" s="1" t="s">
+      <c r="C285" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C285" s="2" t="s">
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B286" s="1" t="s">
+      <c r="C286" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C286" s="2" t="s">
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="s">
+      <c r="B287" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B287" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="288">
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C288" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="s">
+      <c r="B289" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="C290" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C290" s="1" t="s">
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="s">
+      <c r="B291" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="C291" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C291" s="1" t="s">
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1" t="s">
         <v>541</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="C293" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C293" s="1" t="s">
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="s">
+      <c r="B294" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="C294" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C294" s="2" t="s">
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B295" s="1" t="s">
+      <c r="C295" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C295" s="2" t="s">
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B296" s="1" t="s">
+      <c r="C296" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C296" s="2" t="s">
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B297" s="1" t="s">
+      <c r="C297" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C297" s="2" t="s">
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="s">
+      <c r="B298" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B298" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="299">
+    </row>
+    <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>40</v>
@@ -5929,407 +6216,407 @@
         <v>41</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="C300" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C300" s="1" t="s">
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="s">
+      <c r="B301" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="C301" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C301" s="2" t="s">
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B302" s="1" t="s">
+      <c r="C302" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C302" s="2" t="s">
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B303" s="1" t="s">
+      <c r="C303" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C303" s="2" t="s">
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="s">
+      <c r="B304" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="C304" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C304" s="1" t="s">
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B305" s="1" t="s">
+      <c r="C305" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C305" s="1" t="s">
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B306" s="1" t="s">
+      <c r="C306" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C306" s="1" t="s">
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B307" s="1" t="s">
+      <c r="C307" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C307" s="1" t="s">
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B308" s="1" t="s">
+      <c r="C308" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C308" s="1" t="s">
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B309" s="1" t="s">
+      <c r="C309" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C309" s="1" t="s">
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B310" s="1" t="s">
+      <c r="C310" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C310" s="1" t="s">
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B311" s="1" t="s">
+      <c r="C311" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C311" s="1" t="s">
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B312" s="1" t="s">
+      <c r="C312" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C312" s="1" t="s">
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B313" s="1" t="s">
+      <c r="C313" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C313" s="1" t="s">
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1" t="s">
         <v>587</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B315" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="s">
+      <c r="B316" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B316" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="s">
+      <c r="B319" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="s">
+      <c r="B320" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C319" s="1" t="s">
+      <c r="B321" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C323" s="1" t="s">
+    <row r="324" spans="1:3">
+      <c r="A324" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C325" s="1" t="s">
+    <row r="326" spans="1:3">
+      <c r="A326" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C327" s="1" t="s">
+    <row r="328" spans="1:3">
+      <c r="A328" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1" t="s">
         <v>596</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="C330" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C330" s="1" t="s">
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="s">
+      <c r="B331" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="C331" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C331" s="1" t="s">
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B332" s="1" t="s">
+      <c r="C332" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C332" s="1" t="s">
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B333" s="1" t="s">
+      <c r="C333" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C333" s="1" t="s">
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B334" s="1" t="s">
+      <c r="C334" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C334" s="1" t="s">
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1" t="s">
         <v>609</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="C336" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C336" s="1" t="s">
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1" t="s">
         <v>613</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>50</v>
@@ -6338,204 +6625,204 @@
         <v>51</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="C338" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C338" s="1" t="s">
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="s">
+      <c r="B339" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="C339" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C339" s="1" t="s">
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B340" s="1" t="s">
+      <c r="C340" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C340" s="1" t="s">
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B341" s="1" t="s">
+      <c r="C341" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="C341" s="1" t="s">
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B342" s="1" t="s">
+      <c r="C342" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C342" s="1" t="s">
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B343" s="1" t="s">
+      <c r="C343" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C343" s="1" t="s">
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B344" s="1" t="s">
+      <c r="C344" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C344" s="1" t="s">
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B345" s="1" t="s">
+      <c r="C345" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C345" s="1" t="s">
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1" t="s">
         <v>631</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="C347" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C347" s="1" t="s">
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B348" s="1" t="s">
+      <c r="C348" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C348" s="1" t="s">
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B349" s="1" t="s">
+      <c r="C349" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="C349" s="1" t="s">
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="s">
+      <c r="B350" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="C350" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C350" s="1" t="s">
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="s">
+      <c r="B351" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="C351" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C351" s="2" t="s">
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B352" s="1" t="s">
+      <c r="C352" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C352" s="2" t="s">
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B353" s="1" t="s">
+      <c r="C353" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C353" s="2" t="s">
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B354" s="1" t="s">
+      <c r="C354" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="C354" s="2" t="s">
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="s">
+      <c r="B355" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>32</v>
@@ -6544,64 +6831,64 @@
         <v>32</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B357" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="C357" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="C357" s="1" t="s">
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="s">
+      <c r="B358" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="C358" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C358" s="1" t="s">
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="s">
+      <c r="B359" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="C359" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C359" s="1" t="s">
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B360" s="1" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B360" s="1" t="s">
+      <c r="C360" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C360" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="361">
+    </row>
+    <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C361" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1" t="s">
         <v>665</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>32</v>
@@ -6610,130 +6897,130 @@
         <v>32</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B363" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="C363" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C363" s="1" t="s">
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B364" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="B364" s="1" t="s">
+      <c r="C364" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C364" s="1" t="s">
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="s">
+      <c r="B365" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="C365" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C365" s="1" t="s">
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="s">
+      <c r="B366" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="C366" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C366" s="1" t="s">
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="s">
+      <c r="B367" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B367" s="1" t="s">
+      <c r="C367" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="C367" s="1" t="s">
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="s">
+      <c r="B368" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="C368" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C368" s="1" t="s">
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B369" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B369" s="1" t="s">
+      <c r="C369" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C369" s="1" t="s">
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B370" s="1" t="s">
+      <c r="C370" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="C370" s="1" t="s">
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B371" s="1" t="s">
+      <c r="C371" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C371" s="1" t="s">
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B372" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B372" s="1" t="s">
+      <c r="C372" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="C372" s="1" t="s">
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B373" s="1" t="s">
         <v>691</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>692</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>32</v>
@@ -6742,108 +7029,108 @@
         <v>32</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B375" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="s">
+      <c r="B376" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C376" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B376" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="C376" s="1" t="s">
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="s">
-        <v>697</v>
-      </c>
       <c r="B377" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C377" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C377" s="1" t="s">
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B379" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B379" s="1" t="s">
+      <c r="C379" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="C379" s="1" t="s">
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B380" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B380" s="1" t="s">
+      <c r="C380" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C380" s="1" t="s">
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B381" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B381" s="1" t="s">
+      <c r="C381" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="C381" s="1" t="s">
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>691</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>692</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B383" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B383" s="1" t="s">
+      <c r="C383" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C383" s="1" t="s">
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1" t="s">
         <v>700</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="s">
-        <v>701</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>32</v>
@@ -6852,190 +7139,190 @@
         <v>32</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B385" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="C385" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C385" s="1" t="s">
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="1" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="s">
+      <c r="B386" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="C386" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="C386" s="1" t="s">
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B387" s="1" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="B387" s="1" t="s">
+      <c r="C387" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C387" s="1" t="s">
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="1" t="s">
         <v>709</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="s">
-        <v>710</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="389">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B389" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B389" s="1" t="s">
+      <c r="C389" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C389" s="1" t="s">
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B390" s="1" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B390" s="1" t="s">
+      <c r="C390" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="C390" s="1" t="s">
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B391" s="1" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B391" s="1" t="s">
+      <c r="C391" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C391" s="1" t="s">
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="1" t="s">
         <v>716</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="s">
-        <v>717</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B393" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B393" s="1" t="s">
+      <c r="C393" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C393" s="1" t="s">
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="s">
+      <c r="B394" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B394" s="1" t="s">
+      <c r="C394" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C394" s="1" t="s">
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="s">
+      <c r="B395" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B395" s="1" t="s">
+      <c r="C395" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="C395" s="2" t="s">
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B396" s="1" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B396" s="1" t="s">
+      <c r="C396" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="C396" s="2" t="s">
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B397" s="1" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B397" s="1" t="s">
+      <c r="C397" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="C397" s="2" t="s">
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="1" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="s">
+      <c r="B398" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B398" s="1" t="s">
+      <c r="C398" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C398" s="1" t="s">
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="1" t="s">
         <v>733</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B400" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B400" s="1" t="s">
+      <c r="C400" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C400" s="1" t="s">
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="s">
+      <c r="B401" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B401" s="1" t="s">
+      <c r="C401" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C401" s="1" t="s">
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="1" t="s">
         <v>740</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="s">
-        <v>741</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>10</v>
@@ -7044,9 +7331,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>12</v>
@@ -7055,72 +7342,72 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B404" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B404" s="1" t="s">
+      <c r="C404" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C404" s="1" t="s">
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B405" s="1" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="B405" s="1" t="s">
+      <c r="C405" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C405" s="1" t="s">
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B406" s="1" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="B406" s="1" t="s">
+      <c r="C406" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="C406" s="1" t="s">
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="1" t="s">
         <v>748</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="s">
-        <v>749</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B408" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B408" s="1" t="s">
+      <c r="C408" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C408" s="1" t="s">
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="1" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="s">
+      <c r="B409" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B409" s="1" t="s">
+      <c r="C409" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C409" s="1" t="s">
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="1" t="s">
         <v>755</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>10</v>
@@ -7129,9 +7416,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>12</v>
@@ -7140,64 +7427,64 @@
         <v>13</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B412" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B412" s="1" t="s">
+      <c r="C412" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C412" s="1" t="s">
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B413" s="1" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B413" s="1" t="s">
+      <c r="C413" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C413" s="1" t="s">
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B414" s="1" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B414" s="1" t="s">
+      <c r="C414" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="C414" s="1" t="s">
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B415" s="1" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B415" s="1" t="s">
+      <c r="C415" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C415" s="1" t="s">
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B416" s="1" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B416" s="1" t="s">
+      <c r="C416" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C416" s="1" t="s">
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="1" t="s">
         <v>767</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>32</v>
@@ -7206,42 +7493,42 @@
         <v>32</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B418" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="B418" s="1" t="s">
+      <c r="C418" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C418" s="1" t="s">
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="s">
+      <c r="B419" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B419" s="1" t="s">
+      <c r="C419" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="C419" s="1" t="s">
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="1" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="s">
+      <c r="B420" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C420" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B420" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="C420" s="1" t="s">
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="1" t="s">
         <v>776</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="s">
-        <v>777</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>32</v>
@@ -7250,86 +7537,86 @@
         <v>32</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B422" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B422" s="1" t="s">
+      <c r="C422" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="C422" s="1" t="s">
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="1" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="s">
+      <c r="B423" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B423" s="1" t="s">
+      <c r="C423" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="C423" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="s">
+      <c r="B424" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B424" s="1" t="s">
+      <c r="C424" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="C424" s="2" t="s">
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B425" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="B425" s="1" t="s">
+      <c r="C425" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="C425" s="2" t="s">
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="1" t="s">
         <v>787</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="427">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B427" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B427" s="1" t="s">
+      <c r="C427" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C427" s="1" t="s">
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B428" s="1" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="B428" s="1" t="s">
+      <c r="C428" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="C428" s="1" t="s">
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="1" t="s">
         <v>792</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="s">
-        <v>793</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>32</v>
@@ -7338,97 +7625,97 @@
         <v>32</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B430" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="B430" s="1" t="s">
+      <c r="C430" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="C430" s="1" t="s">
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="s">
+      <c r="B431" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="C431" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="C431" s="1" t="s">
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="1" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="s">
+      <c r="B432" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="B432" s="1" t="s">
+      <c r="C432" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C432" s="1" t="s">
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B433" s="1" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="B433" s="1" t="s">
+      <c r="C433" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C433" s="1" t="s">
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B434" s="1" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="B434" s="1" t="s">
+      <c r="C434" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="C434" s="1" t="s">
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B435" s="1" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="B435" s="1" t="s">
+      <c r="C435" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C435" s="1" t="s">
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B436" s="1" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="B436" s="1" t="s">
+      <c r="C436" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="C436" s="1" t="s">
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B437" s="1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="B437" s="1" t="s">
+      <c r="C437" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="C437" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="438">
+    </row>
+    <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>107</v>
@@ -7437,238 +7724,238 @@
         <v>108</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="C439" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="C439" s="1" t="s">
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="1" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="s">
+      <c r="B440" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C440" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B440" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="C440" s="1" t="s">
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="1" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="s">
+      <c r="B441" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="C441" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C441" s="1" t="s">
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="1" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="s">
+      <c r="B442" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B442" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="s">
+      <c r="B443" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B443" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="s">
+      <c r="B444" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="B444" s="1" t="s">
+      <c r="C444" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="C444" s="1" t="s">
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="1" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="s">
+      <c r="B445" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C445" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="B445" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="C445" s="1" t="s">
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="1" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="s">
+      <c r="B446" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B446" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="s">
+      <c r="B447" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B447" s="1" t="s">
+      <c r="C447" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="C447" s="1" t="s">
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="1" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="s">
+      <c r="B448" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B448" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="s">
+      <c r="B449" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B449" s="1" t="s">
+      <c r="C449" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="C449" s="1" t="s">
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="1" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="s">
+      <c r="B450" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="C450" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="C450" s="1" t="s">
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="1" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="s">
+      <c r="B451" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="B451" s="1" t="s">
+      <c r="C451" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="C451" s="1" t="s">
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="1" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="s">
+      <c r="B452" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="C452" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C452" s="1" t="s">
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="1" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="s">
+      <c r="B453" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="C453" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C453" s="1" t="s">
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="1" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="s">
+      <c r="B454" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B454" s="1" t="s">
+      <c r="C454" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C454" s="1" t="s">
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="1" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="s">
+      <c r="B455" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="C455" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="C455" s="1" t="s">
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="1" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="s">
+      <c r="B456" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="C456" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="C456" s="1" t="s">
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="1" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="s">
+      <c r="B457" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="B457" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="s">
+      <c r="B458" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B458" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="s">
+      <c r="B459" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="B459" s="1" t="s">
+      <c r="C459" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="C459" s="1" t="s">
-        <v>861</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>